--- a/output/CSHG_03074954000137.xlsx
+++ b/output/CSHG_03074954000137.xlsx
@@ -2495,10 +2495,10 @@
         <v>44165</v>
       </c>
       <c r="B192">
-        <v>10.05265537564593</v>
+        <v>10.05685859334155</v>
       </c>
       <c r="C192">
-        <v>0.03548378376150207</v>
+        <v>0.03587756820655219</v>
       </c>
     </row>
   </sheetData>

--- a/output/CSHG_03074954000137.xlsx
+++ b/output/CSHG_03074954000137.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>CSHG VERDE AM CARTEIRA ADMINISTRADA - REAL FUNDO DE INVESTIMENTO EM COTAS DE FI MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,2119 +383,1546 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C192"/>
+  <dimension ref="A1:B192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>38383</v>
       </c>
       <c r="B2">
-        <v>-0.006135950805626567</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>38411</v>
       </c>
       <c r="B3">
-        <v>0.03183629900741303</v>
-      </c>
-      <c r="C3">
         <v>0.03820668414741424</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>38442</v>
       </c>
       <c r="B4">
-        <v>0.05114744614745059</v>
-      </c>
-      <c r="C4">
         <v>0.0187153205974766</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>38472</v>
       </c>
       <c r="B5">
-        <v>0.05107401016163493</v>
-      </c>
-      <c r="C5">
         <v>-6.986268775599491e-05</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>38503</v>
       </c>
       <c r="B6">
-        <v>0.04449795024570902</v>
-      </c>
-      <c r="C6">
         <v>-0.006256514624421783</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>38533</v>
       </c>
       <c r="B7">
-        <v>0.01923879233735781</v>
-      </c>
-      <c r="C7">
         <v>-0.024183061251972</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>38564</v>
       </c>
       <c r="B8">
-        <v>0.03391511009518933</v>
-      </c>
-      <c r="C8">
         <v>0.01439929275471874</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>38595</v>
       </c>
       <c r="B9">
-        <v>0.04787788077023225</v>
-      </c>
-      <c r="C9">
         <v>0.01350475540855323</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>38625</v>
       </c>
       <c r="B10">
-        <v>0.1130098732968241</v>
-      </c>
-      <c r="C10">
         <v>0.06215609063025296</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>38656</v>
       </c>
       <c r="B11">
-        <v>0.1146076761434847</v>
-      </c>
-      <c r="C11">
         <v>0.001435569337698395</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>38686</v>
       </c>
       <c r="B12">
-        <v>0.1505232622295496</v>
-      </c>
-      <c r="C12">
         <v>0.03222262582142976</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>38717</v>
       </c>
       <c r="B13">
-        <v>0.1896405356640758</v>
-      </c>
-      <c r="C13">
         <v>0.03399955022093382</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>38748</v>
       </c>
       <c r="B14">
-        <v>0.2608302621537992</v>
-      </c>
-      <c r="C14">
         <v>0.0598413759077101</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>38776</v>
       </c>
       <c r="B15">
-        <v>0.2982247378350511</v>
-      </c>
-      <c r="C15">
         <v>0.02965861210958964</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>38807</v>
       </c>
       <c r="B16">
-        <v>0.3065727893369394</v>
-      </c>
-      <c r="C16">
         <v>0.006430359288800647</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>38837</v>
       </c>
       <c r="B17">
-        <v>0.3453809626489743</v>
-      </c>
-      <c r="C17">
         <v>0.02970226659299202</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>38868</v>
       </c>
       <c r="B18">
-        <v>0.3532702377379811</v>
-      </c>
-      <c r="C18">
         <v>0.005863971104119958</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>38898</v>
       </c>
       <c r="B19">
-        <v>0.3644246183237703</v>
-      </c>
-      <c r="C19">
         <v>0.008242537428765129</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>38929</v>
       </c>
       <c r="B20">
-        <v>0.3874999552322609</v>
-      </c>
-      <c r="C20">
         <v>0.01691213761361121</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>38960</v>
       </c>
       <c r="B21">
-        <v>0.4121989082347843</v>
-      </c>
-      <c r="C21">
         <v>0.01780104778337743</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>38990</v>
       </c>
       <c r="B22">
-        <v>0.4214457945793939</v>
-      </c>
-      <c r="C22">
         <v>0.006547863966392731</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>39021</v>
       </c>
       <c r="B23">
-        <v>0.4601515088958059</v>
-      </c>
-      <c r="C23">
         <v>0.02722982083735737</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>39051</v>
       </c>
       <c r="B24">
-        <v>0.5073701382488605</v>
-      </c>
-      <c r="C24">
         <v>0.03233817111812054</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>39082</v>
       </c>
       <c r="B25">
-        <v>0.5299002547740486</v>
-      </c>
-      <c r="C25">
         <v>0.01494663848877997</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>39113</v>
       </c>
       <c r="B26">
-        <v>0.5655950936720175</v>
-      </c>
-      <c r="C26">
         <v>0.02333148111230354</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>39141</v>
       </c>
       <c r="B27">
-        <v>0.5656879233803354</v>
-      </c>
-      <c r="C27">
         <v>5.929356108302919e-05</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>39172</v>
       </c>
       <c r="B28">
-        <v>0.6037978888953235</v>
-      </c>
-      <c r="C28">
         <v>0.02434071627295209</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>39202</v>
       </c>
       <c r="B29">
-        <v>0.6223129304840467</v>
-      </c>
-      <c r="C29">
         <v>0.01154449804237867</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>39233</v>
       </c>
       <c r="B30">
-        <v>0.668624159996724</v>
-      </c>
-      <c r="C30">
         <v>0.02854642198953528</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>39263</v>
       </c>
       <c r="B31">
-        <v>0.748225558858495</v>
-      </c>
-      <c r="C31">
         <v>0.04770481020838591</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>39294</v>
       </c>
       <c r="B32">
-        <v>0.8101664055722018</v>
-      </c>
-      <c r="C32">
         <v>0.035430695083849</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>39325</v>
       </c>
       <c r="B33">
-        <v>0.8699055410838443</v>
-      </c>
-      <c r="C33">
         <v>0.03300201314517204</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>39355</v>
       </c>
       <c r="B34">
-        <v>0.8669546206489895</v>
-      </c>
-      <c r="C34">
         <v>-0.001578112032944889</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>39386</v>
       </c>
       <c r="B35">
-        <v>0.9091047817148687</v>
-      </c>
-      <c r="C35">
         <v>0.02257696068221904</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>39416</v>
       </c>
       <c r="B36">
-        <v>0.9703708856842772</v>
-      </c>
-      <c r="C36">
         <v>0.03209153554912558</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>39447</v>
       </c>
       <c r="B37">
-        <v>1.023432904443751</v>
-      </c>
-      <c r="C37">
         <v>0.02692996488376642</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>39478</v>
       </c>
       <c r="B38">
-        <v>1.018373626213231</v>
-      </c>
-      <c r="C38">
         <v>-0.002500343954775275</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>39507</v>
       </c>
       <c r="B39">
-        <v>1.136383954620582</v>
-      </c>
-      <c r="C39">
         <v>0.05846802934536699</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>39538</v>
       </c>
       <c r="B40">
-        <v>1.058975854004597</v>
-      </c>
-      <c r="C40">
         <v>-0.03623323440927628</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>39568</v>
       </c>
       <c r="B41">
-        <v>1.147584285489651</v>
-      </c>
-      <c r="C41">
         <v>0.04303519699500824</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>39599</v>
       </c>
       <c r="B42">
-        <v>1.231755693425927</v>
-      </c>
-      <c r="C42">
         <v>0.03919352944840782</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>39629</v>
       </c>
       <c r="B43">
-        <v>1.33067352708901</v>
-      </c>
-      <c r="C43">
         <v>0.04432287725509765</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>39660</v>
       </c>
       <c r="B44">
-        <v>1.244616113426382</v>
-      </c>
-      <c r="C44">
         <v>-0.03692383882272543</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>39691</v>
       </c>
       <c r="B45">
-        <v>1.104139188003084</v>
-      </c>
-      <c r="C45">
         <v>-0.06258394234231057</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>39721</v>
       </c>
       <c r="B46">
-        <v>0.8226834485660572</v>
-      </c>
-      <c r="C46">
         <v>-0.1337628903267279</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>39752</v>
       </c>
       <c r="B47">
-        <v>0.544102676448581</v>
-      </c>
-      <c r="C47">
         <v>-0.1528410061202023</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>39782</v>
       </c>
       <c r="B48">
-        <v>0.5747231343390995</v>
-      </c>
-      <c r="C48">
         <v>0.01983058403923321</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>39813</v>
       </c>
       <c r="B49">
-        <v>0.571819177796715</v>
-      </c>
-      <c r="C49">
         <v>-0.001844106102882215</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>39844</v>
       </c>
       <c r="B50">
-        <v>0.6651537141715338</v>
-      </c>
-      <c r="C50">
         <v>0.05937994503009558</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>39872</v>
       </c>
       <c r="B51">
-        <v>0.675363529246646</v>
-      </c>
-      <c r="C51">
         <v>0.00613145500515655</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>39903</v>
       </c>
       <c r="B52">
-        <v>0.7275142964508203</v>
-      </c>
-      <c r="C52">
         <v>0.03112803059979741</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>39933</v>
       </c>
       <c r="B53">
-        <v>1.046800566242638</v>
-      </c>
-      <c r="C53">
         <v>0.1848240969396266</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>39964</v>
       </c>
       <c r="B54">
-        <v>1.206166234069527</v>
-      </c>
-      <c r="C54">
         <v>0.07786086756827548</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>39994</v>
       </c>
       <c r="B55">
-        <v>1.269639978854761</v>
-      </c>
-      <c r="C55">
         <v>0.02877106167478116</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>40025</v>
       </c>
       <c r="B56">
-        <v>1.392988530741719</v>
-      </c>
-      <c r="C56">
         <v>0.05434718855683829</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>40056</v>
       </c>
       <c r="B57">
-        <v>1.488539610799749</v>
-      </c>
-      <c r="C57">
         <v>0.03992960218175945</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>40086</v>
       </c>
       <c r="B58">
-        <v>1.545942461595868</v>
-      </c>
-      <c r="C58">
         <v>0.02306688249887712</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>40117</v>
       </c>
       <c r="B59">
-        <v>1.573747755109046</v>
-      </c>
-      <c r="C59">
         <v>0.01092141473446695</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>40147</v>
       </c>
       <c r="B60">
-        <v>1.65002132295866</v>
-      </c>
-      <c r="C60">
         <v>0.02963521491109855</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>40178</v>
       </c>
       <c r="B61">
-        <v>1.716938652925549</v>
-      </c>
-      <c r="C61">
         <v>0.0252516194443968</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>40209</v>
       </c>
       <c r="B62">
-        <v>1.826004420822695</v>
-      </c>
-      <c r="C62">
         <v>0.04014288941699351</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>40237</v>
       </c>
       <c r="B63">
-        <v>1.786994792684148</v>
-      </c>
-      <c r="C63">
         <v>-0.01380381001923248</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>40268</v>
       </c>
       <c r="B64">
-        <v>1.807860596706324</v>
-      </c>
-      <c r="C64">
         <v>0.007486847150539822</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>40298</v>
       </c>
       <c r="B65">
-        <v>1.758906060254472</v>
-      </c>
-      <c r="C65">
         <v>-0.01743481728020158</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>40329</v>
       </c>
       <c r="B66">
-        <v>1.793778101892456</v>
-      </c>
-      <c r="C66">
         <v>0.01263980754559202</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>40359</v>
       </c>
       <c r="B67">
-        <v>1.851035330834945</v>
-      </c>
-      <c r="C67">
         <v>0.02049455141183332</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>40390</v>
       </c>
       <c r="B68">
-        <v>1.89416823669099</v>
-      </c>
-      <c r="C68">
         <v>0.01512885701188904</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>40421</v>
       </c>
       <c r="B69">
-        <v>1.903578618197947</v>
-      </c>
-      <c r="C69">
         <v>0.003251497749044541</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>40451</v>
       </c>
       <c r="B70">
-        <v>1.91765636594211</v>
-      </c>
-      <c r="C70">
         <v>0.004848412802026747</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>40482</v>
       </c>
       <c r="B71">
-        <v>2.003919778779118</v>
-      </c>
-      <c r="C71">
         <v>0.02956599476345612</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>40512</v>
       </c>
       <c r="B72">
-        <v>2.073241372851208</v>
-      </c>
-      <c r="C72">
         <v>0.02307704571933122</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>40543</v>
       </c>
       <c r="B73">
-        <v>2.112578194036288</v>
-      </c>
-      <c r="C73">
         <v>0.01279978251385638</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>40574</v>
       </c>
       <c r="B74">
-        <v>2.128776800756126</v>
-      </c>
-      <c r="C74">
         <v>0.005204240892927148</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>40602</v>
       </c>
       <c r="B75">
-        <v>2.14161265762721</v>
-      </c>
-      <c r="C75">
         <v>0.004102515995382916</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>40633</v>
       </c>
       <c r="B76">
-        <v>2.262415749648802</v>
-      </c>
-      <c r="C76">
         <v>0.03845257362593868</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>40663</v>
       </c>
       <c r="B77">
-        <v>2.320670437608199</v>
-      </c>
-      <c r="C77">
         <v>0.01785630417143125</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>40694</v>
       </c>
       <c r="B78">
-        <v>2.331363406397212</v>
-      </c>
-      <c r="C78">
         <v>0.003220123462994273</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>40724</v>
       </c>
       <c r="B79">
-        <v>2.323616458931968</v>
-      </c>
-      <c r="C79">
         <v>-0.002325458534595204</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>40755</v>
       </c>
       <c r="B80">
-        <v>2.287298453103986</v>
-      </c>
-      <c r="C80">
         <v>-0.01092725537881489</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>40786</v>
       </c>
       <c r="B81">
-        <v>2.369024562656354</v>
-      </c>
-      <c r="C81">
         <v>0.02486117726098147</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>40816</v>
       </c>
       <c r="B82">
-        <v>2.400566475768017</v>
-      </c>
-      <c r="C82">
         <v>0.009362328034436596</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>40847</v>
       </c>
       <c r="B83">
-        <v>2.447105513946148</v>
-      </c>
-      <c r="C83">
         <v>0.01368567222836581</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>40877</v>
       </c>
       <c r="B84">
-        <v>2.438971350876836</v>
-      </c>
-      <c r="C84">
         <v>-0.002359708177310682</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>40908</v>
       </c>
       <c r="B85">
-        <v>2.514749584808782</v>
-      </c>
-      <c r="C85">
         <v>0.02203514545494101</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>40939</v>
       </c>
       <c r="B86">
-        <v>2.6151651443045</v>
-      </c>
-      <c r="C86">
         <v>0.02856976210473894</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>40968</v>
       </c>
       <c r="B87">
-        <v>2.715378894210487</v>
-      </c>
-      <c r="C87">
         <v>0.02772037954168405</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>40999</v>
       </c>
       <c r="B88">
-        <v>2.769833324807754</v>
-      </c>
-      <c r="C88">
         <v>0.01465649457236262</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>41029</v>
       </c>
       <c r="B89">
-        <v>2.871279353193001</v>
-      </c>
-      <c r="C89">
         <v>0.02690995055873469</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>41060</v>
       </c>
       <c r="B90">
-        <v>2.835184848191414</v>
-      </c>
-      <c r="C90">
         <v>-0.009323663241149638</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>41090</v>
       </c>
       <c r="B91">
-        <v>2.874214106561275</v>
-      </c>
-      <c r="C91">
         <v>0.0101766303098183</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>41121</v>
       </c>
       <c r="B92">
-        <v>2.969670549307932</v>
-      </c>
-      <c r="C92">
         <v>0.02463891775753813</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>41152</v>
       </c>
       <c r="B93">
-        <v>2.987634018562428</v>
-      </c>
-      <c r="C93">
         <v>0.004525178860907753</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>41182</v>
       </c>
       <c r="B94">
-        <v>3.064890466350101</v>
-      </c>
-      <c r="C94">
         <v>0.01937400659841004</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>41213</v>
       </c>
       <c r="B95">
-        <v>3.112023226111275</v>
-      </c>
-      <c r="C95">
         <v>0.01159508728497061</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>41243</v>
       </c>
       <c r="B96">
-        <v>3.207464261998244</v>
-      </c>
-      <c r="C96">
         <v>0.02321023754946716</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>41274</v>
       </c>
       <c r="B97">
-        <v>3.241915047656864</v>
-      </c>
-      <c r="C97">
         <v>0.008188016228629413</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>41305</v>
       </c>
       <c r="B98">
-        <v>3.304836003776844</v>
-      </c>
-      <c r="C98">
         <v>0.0148331485692379</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>41333</v>
       </c>
       <c r="B99">
-        <v>3.348985897520192</v>
-      </c>
-      <c r="C99">
         <v>0.0102558828500352</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>41364</v>
       </c>
       <c r="B100">
-        <v>3.425611356693602</v>
-      </c>
-      <c r="C100">
         <v>0.01761915558684657</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>41394</v>
       </c>
       <c r="B101">
-        <v>3.442399731920642</v>
-      </c>
-      <c r="C101">
         <v>0.003793458998980759</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>41425</v>
       </c>
       <c r="B102">
-        <v>3.532383343887258</v>
-      </c>
-      <c r="C102">
         <v>0.02025563150475684</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>41455</v>
       </c>
       <c r="B103">
-        <v>3.507578739020163</v>
-      </c>
-      <c r="C103">
         <v>-0.005472750865292197</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>41486</v>
       </c>
       <c r="B104">
-        <v>3.596474917260772</v>
-      </c>
-      <c r="C104">
         <v>0.01972149204429274</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>41517</v>
       </c>
       <c r="B105">
-        <v>3.731016654072009</v>
-      </c>
-      <c r="C105">
         <v>0.02927063439550248</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>41547</v>
       </c>
       <c r="B106">
-        <v>3.709416557765622</v>
-      </c>
-      <c r="C106">
         <v>-0.004565635229331955</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>41578</v>
       </c>
       <c r="B107">
-        <v>3.781553130386699</v>
-      </c>
-      <c r="C107">
         <v>0.01531751794224423</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>41608</v>
       </c>
       <c r="B108">
-        <v>3.969130346290119</v>
-      </c>
-      <c r="C108">
         <v>0.03922934887230878</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>41639</v>
       </c>
       <c r="B109">
-        <v>4.057820035445238</v>
-      </c>
-      <c r="C109">
         <v>0.01784813095541637</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>41670</v>
       </c>
       <c r="B110">
-        <v>4.056883207151378</v>
-      </c>
-      <c r="C110">
         <v>-0.0001852237302425452</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>41698</v>
       </c>
       <c r="B111">
-        <v>3.99534197586083</v>
-      </c>
-      <c r="C111">
         <v>-0.01216979486564307</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>41729</v>
       </c>
       <c r="B112">
-        <v>3.964794835701722</v>
-      </c>
-      <c r="C112">
         <v>-0.006115124911712289</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>41759</v>
       </c>
       <c r="B113">
-        <v>3.91964258383038</v>
-      </c>
-      <c r="C113">
         <v>-0.009094484941583603</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>41790</v>
       </c>
       <c r="B114">
-        <v>3.966110517323831</v>
-      </c>
-      <c r="C114">
         <v>0.009445388095098428</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>41820</v>
       </c>
       <c r="B115">
-        <v>3.965238340402808</v>
-      </c>
-      <c r="C115">
         <v>-0.0001756257574174747</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>41851</v>
       </c>
       <c r="B116">
-        <v>3.973417423252722</v>
-      </c>
-      <c r="C116">
         <v>0.001647268930347279</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>41882</v>
       </c>
       <c r="B117">
-        <v>3.887620828128169</v>
-      </c>
-      <c r="C117">
         <v>-0.01725103441416764</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>41912</v>
       </c>
       <c r="B118">
-        <v>4.216403754462499</v>
-      </c>
-      <c r="C118">
         <v>0.06726850095289527</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>41943</v>
       </c>
       <c r="B119">
-        <v>4.185714776590737</v>
-      </c>
-      <c r="C119">
         <v>-0.005883167660384658</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>41973</v>
       </c>
       <c r="B120">
-        <v>4.366530357629028</v>
-      </c>
-      <c r="C120">
         <v>0.03486801508145532</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>42004</v>
       </c>
       <c r="B121">
-        <v>4.528366309306358</v>
-      </c>
-      <c r="C121">
         <v>0.03015653334509993</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>42035</v>
       </c>
       <c r="B122">
-        <v>4.654893235530408</v>
-      </c>
-      <c r="C122">
         <v>0.02288685646807753</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:2">
       <c r="A123" s="2">
         <v>42063</v>
       </c>
       <c r="B123">
-        <v>4.936972986571774</v>
-      </c>
-      <c r="C123">
         <v>0.0498824185165907</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:2">
       <c r="A124" s="2">
         <v>42094</v>
       </c>
       <c r="B124">
-        <v>5.256048695947855</v>
-      </c>
-      <c r="C124">
         <v>0.05374383715367514</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:2">
       <c r="A125" s="2">
         <v>42124</v>
       </c>
       <c r="B125">
-        <v>5.142287214543157</v>
-      </c>
-      <c r="C125">
         <v>-0.01818423847601802</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:2">
       <c r="A126" s="2">
         <v>42155</v>
       </c>
       <c r="B126">
-        <v>5.392429390125542</v>
-      </c>
-      <c r="C126">
         <v>0.04072459766943504</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:2">
       <c r="A127" s="2">
         <v>42185</v>
       </c>
       <c r="B127">
-        <v>5.379511599844932</v>
-      </c>
-      <c r="C127">
         <v>-0.002020795145670884</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:2">
       <c r="A128" s="2">
         <v>42216</v>
       </c>
       <c r="B128">
-        <v>5.743728512752184</v>
-      </c>
-      <c r="C128">
         <v>0.05709166089079698</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:2">
       <c r="A129" s="2">
         <v>42247</v>
       </c>
       <c r="B129">
-        <v>5.719597924209468</v>
-      </c>
-      <c r="C129">
         <v>-0.003578226569632137</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:2">
       <c r="A130" s="2">
         <v>42277</v>
       </c>
       <c r="B130">
-        <v>5.815585177195442</v>
-      </c>
-      <c r="C130">
         <v>0.01428467209922624</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:2">
       <c r="A131" s="2">
         <v>42308</v>
       </c>
       <c r="B131">
-        <v>5.927552384505484</v>
-      </c>
-      <c r="C131">
         <v>0.01642811356604823</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:2">
       <c r="A132" s="2">
         <v>42338</v>
       </c>
       <c r="B132">
-        <v>6.107480432443523</v>
-      </c>
-      <c r="C132">
         <v>0.02597281665317674</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:2">
       <c r="A133" s="2">
         <v>42369</v>
       </c>
       <c r="B133">
-        <v>6.183256993920305</v>
-      </c>
-      <c r="C133">
         <v>0.01066152234916973</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:2">
       <c r="A134" s="2">
         <v>42400</v>
       </c>
       <c r="B134">
-        <v>6.263932565121181</v>
-      </c>
-      <c r="C134">
         <v>0.01123105734197694</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:2">
       <c r="A135" s="2">
         <v>42429</v>
       </c>
       <c r="B135">
-        <v>6.321562751565131</v>
-      </c>
-      <c r="C135">
         <v>0.007933744693703337</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:2">
       <c r="A136" s="2">
         <v>42460</v>
       </c>
       <c r="B136">
-        <v>6.143427389734018</v>
-      </c>
-      <c r="C136">
         <v>-0.0243302376658634</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:2">
       <c r="A137" s="2">
         <v>42490</v>
       </c>
       <c r="B137">
-        <v>6.271796905424114</v>
-      </c>
-      <c r="C137">
         <v>0.01797029754576607</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:2">
       <c r="A138" s="2">
         <v>42521</v>
       </c>
       <c r="B138">
-        <v>6.385304866276905</v>
-      </c>
-      <c r="C138">
         <v>0.01560934145013371</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:2">
       <c r="A139" s="2">
         <v>42551</v>
       </c>
       <c r="B139">
-        <v>6.518231231015522</v>
-      </c>
-      <c r="C139">
         <v>0.01799876472880513</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:2">
       <c r="A140" s="2">
         <v>42582</v>
       </c>
       <c r="B140">
-        <v>6.657410753569104</v>
-      </c>
-      <c r="C140">
         <v>0.01851226947894524</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:2">
       <c r="A141" s="2">
         <v>42613</v>
       </c>
       <c r="B141">
-        <v>6.785403764125573</v>
-      </c>
-      <c r="C141">
         <v>0.01671492031386879</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:2">
       <c r="A142" s="2">
         <v>42643</v>
       </c>
       <c r="B142">
-        <v>6.881823743768247</v>
-      </c>
-      <c r="C142">
         <v>0.01238471151450971</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:2">
       <c r="A143" s="2">
         <v>42674</v>
       </c>
       <c r="B143">
-        <v>6.970539736081846</v>
-      </c>
-      <c r="C143">
         <v>0.01125576962866526</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:2">
       <c r="A144" s="2">
         <v>42704</v>
       </c>
       <c r="B144">
-        <v>7.05565893618472</v>
-      </c>
-      <c r="C144">
         <v>0.01067922661718224</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:2">
       <c r="A145" s="2">
         <v>42735</v>
       </c>
       <c r="B145">
-        <v>7.304873726932199</v>
-      </c>
-      <c r="C145">
         <v>0.0309366114828975</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:2">
       <c r="A146" s="2">
         <v>42766</v>
       </c>
       <c r="B146">
-        <v>7.317439761036903</v>
-      </c>
-      <c r="C146">
         <v>0.001513091531296196</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:2">
       <c r="A147" s="2">
         <v>42794</v>
       </c>
       <c r="B147">
-        <v>7.432905795229455</v>
-      </c>
-      <c r="C147">
         <v>0.01388240101641047</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:2">
       <c r="A148" s="2">
         <v>42825</v>
       </c>
       <c r="B148">
-        <v>7.530405437594347</v>
-      </c>
-      <c r="C148">
         <v>0.0115618085547744</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:2">
       <c r="A149" s="2">
         <v>42855</v>
       </c>
       <c r="B149">
-        <v>7.570390546323866</v>
-      </c>
-      <c r="C149">
         <v>0.004687363223476071</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:2">
       <c r="A150" s="2">
         <v>42886</v>
       </c>
       <c r="B150">
-        <v>7.498094414722797</v>
-      </c>
-      <c r="C150">
         <v>-0.008435570259056613</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:2">
       <c r="A151" s="2">
         <v>42916</v>
       </c>
       <c r="B151">
-        <v>7.539651361010225</v>
-      </c>
-      <c r="C151">
         <v>0.004890148809765238</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:2">
       <c r="A152" s="2">
         <v>42947</v>
       </c>
       <c r="B152">
-        <v>7.704800953171054</v>
-      </c>
-      <c r="C152">
         <v>0.01933914924382707</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:2">
       <c r="A153" s="2">
         <v>42978</v>
       </c>
       <c r="B153">
-        <v>7.740708852720759</v>
-      </c>
-      <c r="C153">
         <v>0.004125068424066125</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:2">
       <c r="A154" s="2">
         <v>43008</v>
       </c>
       <c r="B154">
-        <v>7.789017111953067</v>
-      </c>
-      <c r="C154">
         <v>0.005526812532746783</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:2">
       <c r="A155" s="2">
         <v>43039</v>
       </c>
       <c r="B155">
-        <v>7.758946638409045</v>
-      </c>
-      <c r="C155">
         <v>-0.003421369325032564</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:2">
       <c r="A156" s="2">
         <v>43069</v>
       </c>
       <c r="B156">
-        <v>7.724378527486683</v>
-      </c>
-      <c r="C156">
         <v>-0.003946605950397752</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:2">
       <c r="A157" s="2">
         <v>43100</v>
       </c>
       <c r="B157">
-        <v>7.781861774385055</v>
-      </c>
-      <c r="C157">
         <v>0.006588807067147151</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:2">
       <c r="A158" s="2">
         <v>43131</v>
       </c>
       <c r="B158">
-        <v>8.053521977716411</v>
-      </c>
-      <c r="C158">
         <v>0.0309342381274702</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:2">
       <c r="A159" s="2">
         <v>43159</v>
       </c>
       <c r="B159">
-        <v>8.067444491213124</v>
-      </c>
-      <c r="C159">
         <v>0.001537800817293045</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:2">
       <c r="A160" s="2">
         <v>43190</v>
       </c>
       <c r="B160">
-        <v>8.123620300510799</v>
-      </c>
-      <c r="C160">
         <v>0.006195329825521734</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:2">
       <c r="A161" s="2">
         <v>43220</v>
       </c>
       <c r="B161">
-        <v>8.111055600991527</v>
-      </c>
-      <c r="C161">
         <v>-0.001377161598731691</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:2">
       <c r="A162" s="2">
         <v>43251</v>
       </c>
       <c r="B162">
-        <v>7.95041280247872</v>
-      </c>
-      <c r="C162">
         <v>-0.017631634088077</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:2">
       <c r="A163" s="2">
         <v>43281</v>
       </c>
       <c r="B163">
-        <v>7.979974342848443</v>
-      </c>
-      <c r="C163">
         <v>0.003302813068190247</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:2">
       <c r="A164" s="2">
         <v>43312</v>
       </c>
       <c r="B164">
-        <v>8.082723720610655</v>
-      </c>
-      <c r="C164">
         <v>0.01144205694129186</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:2">
       <c r="A165" s="2">
         <v>43343</v>
       </c>
       <c r="B165">
-        <v>8.149808481922246</v>
-      </c>
-      <c r="C165">
         <v>0.007385974006823615</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:2">
       <c r="A166" s="2">
         <v>43373</v>
       </c>
       <c r="B166">
-        <v>8.125526325018653</v>
-      </c>
-      <c r="C166">
         <v>-0.002653843187162774</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:2">
       <c r="A167" s="2">
         <v>43404</v>
       </c>
       <c r="B167">
-        <v>8.473591848500835</v>
-      </c>
-      <c r="C167">
         <v>0.03814196694911964</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:2">
       <c r="A168" s="2">
         <v>43434</v>
       </c>
       <c r="B168">
-        <v>8.529678223680978</v>
-      </c>
-      <c r="C168">
         <v>0.005920286210031156</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:2">
       <c r="A169" s="2">
         <v>43465</v>
       </c>
       <c r="B169">
-        <v>8.520929813442526</v>
-      </c>
-      <c r="C169">
         <v>-0.0009180173803468028</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:2">
       <c r="A170" s="2">
         <v>43496</v>
       </c>
       <c r="B170">
-        <v>8.870308771713114</v>
-      </c>
-      <c r="C170">
         <v>0.03669588633846477</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:2">
       <c r="A171" s="2">
         <v>43524</v>
       </c>
       <c r="B171">
-        <v>8.884887968817058</v>
-      </c>
-      <c r="C171">
         <v>0.001477076091654261</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:2">
       <c r="A172" s="2">
         <v>43555</v>
       </c>
       <c r="B172">
-        <v>8.929900224365774</v>
-      </c>
-      <c r="C172">
         <v>0.004553643469780599</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:2">
       <c r="A173" s="2">
         <v>43585</v>
       </c>
       <c r="B173">
-        <v>9.014766613443175</v>
-      </c>
-      <c r="C173">
         <v>0.008546550031707012</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:2">
       <c r="A174" s="2">
         <v>43616</v>
       </c>
       <c r="B174">
-        <v>9.151641763077231</v>
-      </c>
-      <c r="C174">
         <v>0.0136673329411714</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:2">
       <c r="A175" s="2">
         <v>43646</v>
       </c>
       <c r="B175">
-        <v>9.312598695971506</v>
-      </c>
-      <c r="C175">
         <v>0.01585526131149484</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:2">
       <c r="A176" s="2">
         <v>43677</v>
       </c>
       <c r="B176">
-        <v>9.361751866037627</v>
-      </c>
-      <c r="C176">
         <v>0.004766322390235445</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:2">
       <c r="A177" s="2">
         <v>43708</v>
       </c>
       <c r="B177">
-        <v>9.384239225148482</v>
-      </c>
-      <c r="C177">
         <v>0.002170227525382096</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:2">
       <c r="A178" s="2">
         <v>43738</v>
       </c>
       <c r="B178">
-        <v>9.523966468321369</v>
-      </c>
-      <c r="C178">
         <v>0.01345570341200308</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:2">
       <c r="A179" s="2">
         <v>43769</v>
       </c>
       <c r="B179">
-        <v>9.624713528702676</v>
-      </c>
-      <c r="C179">
         <v>0.009573107315057561</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:2">
       <c r="A180" s="2">
         <v>43799</v>
       </c>
       <c r="B180">
-        <v>9.625893589415163</v>
-      </c>
-      <c r="C180">
         <v>0.0001110675322490984</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:2">
       <c r="A181" s="2">
         <v>43830</v>
       </c>
       <c r="B181">
-        <v>9.844364785649024</v>
-      </c>
-      <c r="C181">
         <v>0.02056026576922321</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:2">
       <c r="A182" s="2">
         <v>43861</v>
       </c>
       <c r="B182">
-        <v>9.828423652556934</v>
-      </c>
-      <c r="C182">
         <v>-0.001469992333085868</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:2">
       <c r="A183" s="2">
         <v>43890</v>
       </c>
       <c r="B183">
-        <v>9.522382247837854</v>
-      </c>
-      <c r="C183">
         <v>-0.02826278455099174</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:2">
       <c r="A184" s="2">
         <v>43921</v>
       </c>
       <c r="B184">
-        <v>8.320482734079697</v>
-      </c>
-      <c r="C184">
         <v>-0.1142231374463824</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:2">
       <c r="A185" s="2">
         <v>43951</v>
       </c>
       <c r="B185">
-        <v>9.126663493168918</v>
-      </c>
-      <c r="C185">
         <v>0.08649560136423817</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:2">
       <c r="A186" s="2">
         <v>43982</v>
       </c>
       <c r="B186">
-        <v>9.385900446143465</v>
-      </c>
-      <c r="C186">
         <v>0.02559944379996626</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:2">
       <c r="A187" s="2">
         <v>44012</v>
       </c>
       <c r="B187">
-        <v>9.484660731151447</v>
-      </c>
-      <c r="C187">
         <v>0.00950907295136405</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:2">
       <c r="A188" s="2">
         <v>44043</v>
       </c>
       <c r="B188">
-        <v>9.704300280911651</v>
-      </c>
-      <c r="C188">
         <v>0.02094865588808448</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:2">
       <c r="A189" s="2">
         <v>44074</v>
       </c>
       <c r="B189">
-        <v>9.851064809968888</v>
-      </c>
-      <c r="C189">
         <v>0.01371080081889642</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:2">
       <c r="A190" s="2">
         <v>44104</v>
       </c>
       <c r="B190">
-        <v>9.722710211227371</v>
-      </c>
-      <c r="C190">
         <v>-0.01182875607042699</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:2">
       <c r="A191" s="2">
         <v>44135</v>
       </c>
       <c r="B191">
-        <v>9.673904844261314</v>
-      </c>
-      <c r="C191">
         <v>-0.004551588731266376</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:2">
       <c r="A192" s="2">
         <v>44165</v>
       </c>
       <c r="B192">
-        <v>10.05685859334155</v>
-      </c>
-      <c r="C192">
-        <v>0.03587756820655219</v>
+        <v>0.03061574944280476</v>
       </c>
     </row>
   </sheetData>
